--- a/website_content_creation/authors/Mikkeala_Hurley/Author_form_Mikkealla_Hurley.xlsx
+++ b/website_content_creation/authors/Mikkeala_Hurley/Author_form_Mikkealla_Hurley.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\Documents\WET lab\WETlab_website\website_content_creation\Mikkeala_Hurley\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\Documents\WET lab\WETlab_website\website_content_creation\authors\Mikkeala_Hurley\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -125,13 +125,13 @@
     <t>Photography</t>
   </si>
   <si>
-    <t>BSc. Zoology</t>
-  </si>
-  <si>
     <t>Groups</t>
   </si>
   <si>
     <t>Past WETlab Members</t>
+  </si>
+  <si>
+    <t>B.Sc. Zoology</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,10 +779,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -821,7 +821,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>26</v>
